--- a/src/attributions/attributions_saliency_traj_499.xlsx
+++ b/src/attributions/attributions_saliency_traj_499.xlsx
@@ -1004,571 +1004,571 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.04516739770770073</v>
+        <v>0.001754606491886079</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01815935969352722</v>
+        <v>0.001777959405444562</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0005542384460568428</v>
+        <v>0.001120834378525615</v>
       </c>
       <c r="D2" t="n">
-        <v>0.009160399436950684</v>
+        <v>0.004016589373350143</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02994100376963615</v>
+        <v>0.0008744585793465376</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01215310674160719</v>
+        <v>0.0002035632642218843</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0005351193249225616</v>
+        <v>0.001417377614416182</v>
       </c>
       <c r="H2" t="n">
-        <v>0.007029613479971886</v>
+        <v>0.0003286282881163061</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0100216455757618</v>
+        <v>6.886640039738268e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>0.04644396156072617</v>
+        <v>0.002073989948257804</v>
       </c>
       <c r="K2" t="n">
-        <v>0.008026505820453167</v>
+        <v>0.001416653976775706</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01523572392761707</v>
+        <v>0.0007442363421432674</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0009820980485528708</v>
+        <v>0.004606277216225863</v>
       </c>
       <c r="N2" t="n">
-        <v>0.03916604071855545</v>
+        <v>0.0007190199103206396</v>
       </c>
       <c r="O2" t="n">
-        <v>0.006193895824253559</v>
+        <v>0.002032072050496936</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01532136462628841</v>
+        <v>0.000147491751704365</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.00656467629596591</v>
+        <v>0.001229967689141631</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01200979575514793</v>
+        <v>0.0009951511165127158</v>
       </c>
       <c r="S2" t="n">
-        <v>0.00232456554658711</v>
+        <v>0.000429465901106596</v>
       </c>
       <c r="T2" t="n">
-        <v>0.00305363698862493</v>
+        <v>0.0008939016843214631</v>
       </c>
       <c r="U2" t="n">
-        <v>0.003661301685497165</v>
+        <v>0.0006867075571790338</v>
       </c>
       <c r="V2" t="n">
-        <v>0.01728361658751965</v>
+        <v>0.0004038789193145931</v>
       </c>
       <c r="W2" t="n">
-        <v>0.003030219115316868</v>
+        <v>0.001617243397049606</v>
       </c>
       <c r="X2" t="n">
-        <v>0.003995615057647228</v>
+        <v>0.00101487641222775</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.005877274554222822</v>
+        <v>0.0005453828489407897</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.009512288495898247</v>
+        <v>0.001321452204138041</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.009744650684297085</v>
+        <v>2.36046253121458e-05</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.01182899810373783</v>
+        <v>0.0006420247373171151</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.002244077622890472</v>
+        <v>0.001132911304011941</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.0103390896692872</v>
+        <v>0.0008127611363306642</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.01963013410568237</v>
+        <v>0.0004678583063650876</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.0004825977666769177</v>
+        <v>0.0008771519642323256</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.001912454375997186</v>
+        <v>0.0009533445117995143</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.008050099015235901</v>
+        <v>0.0005029041785746813</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.006330331787467003</v>
+        <v>6.003598173265345e-05</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.005506574176251888</v>
+        <v>0.0006728211883455515</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.005493482109159231</v>
+        <v>0.00041783886263147</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.001326193334534764</v>
+        <v>0.001761141582392156</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.01017985865473747</v>
+        <v>0.0003719684609677643</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.0007274622330442071</v>
+        <v>0.0008952082716859877</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.001740904175676405</v>
+        <v>0.0003177184844389558</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.004529356025159359</v>
+        <v>0.0005896556540392339</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.001036947825923562</v>
+        <v>0.0001200065162265673</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.0003888738574460149</v>
+        <v>0.00035045703407377</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.0005636877031065524</v>
+        <v>0.0009188601397909224</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.01546205952763557</v>
+        <v>0.0006259909132495522</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.008571517653763294</v>
+        <v>0.001187238725833595</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.003376835025846958</v>
+        <v>0.0005939698312431574</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.004808429162949324</v>
+        <v>0.0006781402626074851</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.008686771616339684</v>
+        <v>0.0001735024125082418</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.0005253517883829772</v>
+        <v>0.001002419972792268</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.006638152524828911</v>
+        <v>0.0001573318731971085</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.005502310581505299</v>
+        <v>0.0001059078495018184</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.01070798840373755</v>
+        <v>0.0003473657998256385</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.01451862137764692</v>
+        <v>0.0003733294433914125</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.001311125583015382</v>
+        <v>0.0003456552512943745</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.007001517340540886</v>
+        <v>0.0002767109544947743</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.008083735592663288</v>
+        <v>0.001764470944181085</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.009549795649945736</v>
+        <v>0.0005129294586367905</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.00424036243930459</v>
+        <v>0.0001839228498283774</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.0002882401458919048</v>
+        <v>0.0007951530278660357</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.01343578845262527</v>
+        <v>0.000358313147444278</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.005268330685794353</v>
+        <v>0.001116806059144437</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.008575654588639736</v>
+        <v>0.001930131809785962</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.004755018278956413</v>
+        <v>0.001150695024989545</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.0001156452344730496</v>
+        <v>1.787976361811161e-05</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.0006906363996677101</v>
+        <v>0.0003838514385279268</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.002515641739591956</v>
+        <v>0.000222015893086791</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.005006991326808929</v>
+        <v>0.000619741331320256</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.006266742013394833</v>
+        <v>0.0003246865817345679</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.006538958754390478</v>
+        <v>0.0003255271585658193</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.006011183839291334</v>
+        <v>0.0002076693635899574</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.01885897107422352</v>
+        <v>0.0007859764155000448</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.001509153982624412</v>
+        <v>0.0006162981153465807</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.002711160574108362</v>
+        <v>0.000633406569249928</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.005011377856135368</v>
+        <v>7.246059976750985e-05</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.02084550447762012</v>
+        <v>0.001380055211484432</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.007947779260575771</v>
+        <v>6.326096627162769e-05</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.002569812349975109</v>
+        <v>0.0002922783023677766</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.003166843904182315</v>
+        <v>0.0003588296822272241</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.002034214325249195</v>
+        <v>0.0004726642509922385</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.00746830040588975</v>
+        <v>0.001174705103039742</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.0001573581248521805</v>
+        <v>0.0002622714673634619</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.001328995800577104</v>
+        <v>0.0001887840771814808</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.004761532880365849</v>
+        <v>0.0009994104038923979</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.004801834933459759</v>
+        <v>0.0002302034408785403</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.0002049910108326003</v>
+        <v>0.0003668310819193721</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.00402402225881815</v>
+        <v>9.96698800008744e-05</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.004836566746234894</v>
+        <v>0.0001991850294871256</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.0002180632291128859</v>
+        <v>0.0001050188730005175</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.002171823987737298</v>
+        <v>0.0003022708697244525</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.006609608884900808</v>
+        <v>8.520515984855592e-05</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.01102042756974697</v>
+        <v>0.0002107712207362056</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.001399205066263676</v>
+        <v>0.0001199797552544624</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.002258631866425276</v>
+        <v>0.000919884187169373</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.002937789773568511</v>
+        <v>0.0002438901283312589</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.0003375886008143425</v>
+        <v>0.0008630980737507343</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.0009546738583594561</v>
+        <v>0.0005573917296715081</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.011244285851717</v>
+        <v>0.00130100769456476</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.005254175513982773</v>
+        <v>0.001203915802761912</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.0008860225789248943</v>
+        <v>0.0001417133753420785</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.001964852213859558</v>
+        <v>9.514174598734826e-05</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.006448204163461924</v>
+        <v>0.0007860083132982254</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.002969423541799188</v>
+        <v>2.132550071110018e-05</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.001254930277355015</v>
+        <v>0.0004990854067727923</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.00247302046045661</v>
+        <v>7.565418491140008e-05</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.005566325969994068</v>
+        <v>0.0002855685888789594</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.006162331439554691</v>
+        <v>1.387480642733863e-05</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.007670539896935225</v>
+        <v>0.0001204506115755066</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.01431494113057852</v>
+        <v>0.001313401036895812</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.008480381220579147</v>
+        <v>0.0007641489501111209</v>
       </c>
       <c r="DH2" t="n">
-        <v>6.179558113217354e-06</v>
+        <v>9.271075396100059e-05</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.01140815857797861</v>
+        <v>0.0002256590960314497</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.01729933358728886</v>
+        <v>0.0002752221480477601</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.01342159230262041</v>
+        <v>0.001907362486235797</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.01131140440702438</v>
+        <v>1.194480864796788e-05</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.002688984619453549</v>
+        <v>0.001914367661811411</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.002637955592945218</v>
+        <v>0.000683351478073746</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.002506474032998085</v>
+        <v>0.0004864971269853413</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.008890824392437935</v>
+        <v>0.001112466095946729</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.002323373220860958</v>
+        <v>0.001265911851078272</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.002816419582813978</v>
+        <v>0.001216406933963299</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.006430807989090681</v>
+        <v>0.0007214384968392551</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.002437089569866657</v>
+        <v>0.0005101384012959898</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.01168885268270969</v>
+        <v>0.0001702255103737116</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.0090257553383708</v>
+        <v>0.0007457251776941121</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.009385806508362293</v>
+        <v>0.001192152965813875</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.007702169008553028</v>
+        <v>0.001326717901974916</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.01455068401992321</v>
+        <v>0.0009123856434598565</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.0001400676555931568</v>
+        <v>0.001124119269661605</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.001886614481918514</v>
+        <v>4.607994924299419e-05</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.005394168198108673</v>
+        <v>0.001005593920126557</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.002650042995810509</v>
+        <v>0.000283252855297178</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.001510581467300653</v>
+        <v>0.0009491195087321103</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.009824225679039955</v>
+        <v>0.0007719402783550322</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.01917529664933681</v>
+        <v>0.0003655496693681926</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.002293734811246395</v>
+        <v>0.0001508185087004676</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.0001399731845594943</v>
+        <v>0.0001046046818373725</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.008473187685012817</v>
+        <v>0.002480720169842243</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.0006809630431234837</v>
+        <v>0.0002462422417011112</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.005956585519015789</v>
+        <v>0.0002834755287040025</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.001264035701751709</v>
+        <v>3.888938226737082e-05</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.004477665293961763</v>
+        <v>0.000944889266975224</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.001957852393388748</v>
+        <v>0.00043240882223472</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.004559255670756102</v>
+        <v>0.001323794946074486</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.002971894573420286</v>
+        <v>6.786978337913752e-05</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.006017460487782955</v>
+        <v>0.0007716879481449723</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.0004155323840677738</v>
+        <v>0.0004665349260903895</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.002200339455157518</v>
+        <v>0.0001469024282414466</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.0002151882217731327</v>
+        <v>4.193518179818057e-05</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.005492048338055611</v>
+        <v>0.0002885486173909158</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.008744299411773682</v>
+        <v>0.001503924140706658</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.009445077739655972</v>
+        <v>0.0004500369832385331</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.007757806684821844</v>
+        <v>0.001316034467890859</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.0004511857405304909</v>
+        <v>0.0002261569607071579</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.001995873870328069</v>
+        <v>6.943259359104559e-05</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.004996113944798708</v>
+        <v>0.001024012337438762</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.004306439310312271</v>
+        <v>7.581402314826846e-05</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.002110089408233762</v>
+        <v>0.0001964737894013524</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.001185699598863721</v>
+        <v>3.541555997799151e-05</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.005865748040378094</v>
+        <v>8.554661326343194e-05</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.000797718355897814</v>
+        <v>5.064260403742082e-05</v>
       </c>
       <c r="FG2" t="n">
-        <v>5.556759424507618e-05</v>
+        <v>1.296796835958958e-05</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.008870735764503479</v>
+        <v>0.001463005552068353</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.003291725879535079</v>
+        <v>0.0002945977030321956</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.009471227414906025</v>
+        <v>0.0006744017591699958</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.003133054822683334</v>
+        <v>0.00135689543094486</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.004458515904843807</v>
+        <v>0.0008936421945691109</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.0008573529776185751</v>
+        <v>0.0004771417588926852</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.01317718718200922</v>
+        <v>4.642961357603781e-05</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.01692969724535942</v>
+        <v>6.260833470150828e-05</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.000408755149692297</v>
+        <v>0.002268152544274926</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.00545948650687933</v>
+        <v>0.0004994447808712721</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.01447594538331032</v>
+        <v>0.0002374115429120138</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.01138049364089966</v>
+        <v>0.0003556277661118656</v>
       </c>
       <c r="FT2" t="n">
-        <v>6.324201240204275e-05</v>
+        <v>7.413119601551443e-05</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.004472767934203148</v>
+        <v>0.0009620258933864534</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.003679200075566769</v>
+        <v>0.003669213736429811</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.01571254804730415</v>
+        <v>0.002440489362925291</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.011487927287817</v>
+        <v>0.0002953282673843205</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.0004465717356652021</v>
+        <v>0.001762636820785701</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.002043300773948431</v>
+        <v>0.000279879430308938</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.0002541898284107447</v>
+        <v>0.001507606822997332</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.008349005132913589</v>
+        <v>0.0007500199717469513</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.004180290270596743</v>
+        <v>0.0005088732577860355</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.01412980724126101</v>
+        <v>0.001615565735846758</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.001705473056063056</v>
+        <v>0.001981242327019572</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.005168196279555559</v>
+        <v>0.001520392019301653</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.007075398694723845</v>
+        <v>0.001355156069621444</v>
       </c>
     </row>
     <row r="3">
